--- a/benchmarkLog/benchmarkTime.xlsx
+++ b/benchmarkLog/benchmarkTime.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Access Time</t>
   </si>
@@ -140,6 +140,21 @@
   </si>
   <si>
     <t>3/25/24 18:52</t>
+  </si>
+  <si>
+    <t>3/25/24 18:53</t>
+  </si>
+  <si>
+    <t>3/25/24 20:08</t>
+  </si>
+  <si>
+    <t>00:00:12</t>
+  </si>
+  <si>
+    <t>3/25/24 20:12</t>
+  </si>
+  <si>
+    <t>00:00:10</t>
   </si>
 </sst>
 </file>
@@ -907,25 +922,91 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
-        <v>45376.78691077418</v>
+      <c r="A42" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="2">
-        <v>0.0000000000009606481</v>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
-        <v>45376.78691077418</v>
+      <c r="A43" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="2">
-        <v>0.0000000000009606481</v>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>45376.84219214619</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.0009801714</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>45376.84219214619</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.0009801714</v>
       </c>
     </row>
   </sheetData>
